--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3612.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3612.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.274979395702752</v>
+        <v>1.398115754127502</v>
       </c>
       <c r="B1">
-        <v>2.318076891407792</v>
+        <v>2.523339986801147</v>
       </c>
       <c r="C1">
-        <v>3.429531558142705</v>
+        <v>4.466956615447998</v>
       </c>
       <c r="D1">
-        <v>3.076690261351071</v>
+        <v>1.722910404205322</v>
       </c>
       <c r="E1">
-        <v>0.9232844356310913</v>
+        <v>1.059664607048035</v>
       </c>
     </row>
   </sheetData>
